--- a/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr2_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr2_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -188,59 +239,59 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
-    <col min="2" max="2" width="15.64453125" customWidth="true"/>
-    <col min="3" max="3" width="14.64453125" customWidth="true"/>
-    <col min="4" max="4" width="15.64453125" customWidth="true"/>
-    <col min="5" max="5" width="15.77734375" customWidth="true"/>
-    <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="15.64453125" customWidth="true"/>
+    <col min="2" max="2" width="14.64453125" customWidth="true"/>
+    <col min="3" max="3" width="13.64453125" customWidth="true"/>
+    <col min="4" max="4" width="14.24609375" customWidth="true"/>
+    <col min="5" max="5" width="15.64453125" customWidth="true"/>
+    <col min="6" max="6" width="15.64453125" customWidth="true"/>
+    <col min="7" max="7" width="14.24609375" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="14.64453125" customWidth="true"/>
-    <col min="10" max="10" width="15.1796875" customWidth="true"/>
-    <col min="11" max="11" width="16.24609375" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
+    <col min="11" max="11" width="15.64453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.27928988728448934</v>
+        <v>0.00837115947330902</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.26338438984538404</v>
+        <v>-0.028647336388993194</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.00079514622239410589</v>
+        <v>-0.039027222178800502</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.0018745666948139516</v>
+        <v>-0.0066629275436533783</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.015412807097548907</v>
+        <v>-0.0080632336795468246</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00083888224411678646</v>
+        <v>0.018179157487398425</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.0003538932262165715</v>
+        <v>-0.00078939150960048666</v>
       </c>
       <c r="I3" s="0">
-        <v>0.00026077883603570706</v>
+        <v>0.0013080381848434353</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-0.00015903772307246378</v>
+        <v>-0.0019629166229428799</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.2839220104031821</v>
+        <v>0.40191415129999486</v>
       </c>
       <c r="C4" s="0">
-        <v>0.019082223068699333</v>
+        <v>0.29763981951959051</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-2.6098264916977742e-05</v>
+        <v>0.00027286482131152145</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.00039878767150926318</v>
+        <v>0.0004151410086941262</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-4.7047353269481727e-05</v>
+        <v>-0.0097870494767315526</v>
       </c>
       <c r="I4" s="0">
-        <v>0.0019320721176358806</v>
+        <v>0.078231737708216981</v>
       </c>
       <c r="J4" s="0">
-        <v>8.2056750459930868e-08</v>
+        <v>0.067199567302040811</v>
       </c>
       <c r="K4" s="0">
-        <v>-4.82339559187972e-06</v>
+        <v>-0.0034105931941342815</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.2899239727436787</v>
+        <v>0.46774668368119587</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0.001877769602324011</v>
+        <v>0.091756456851353335</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.0006663166530032343</v>
+        <v>0.025910975197907794</v>
       </c>
       <c r="F5" s="0">
-        <v>0.001903265108641405</v>
+        <v>-0.035711807190625278</v>
       </c>
       <c r="G5" s="0">
-        <v>0.0012168592835326065</v>
+        <v>-0.020465703290884017</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.00076250772993756346</v>
+        <v>-0.0071091649083381446</v>
       </c>
       <c r="I5" s="0">
-        <v>0.004899085230675569</v>
+        <v>0.0018907989934654566</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.0024661925017361863</v>
+        <v>0.0095609767283219016</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.30884580865906008</v>
+        <v>0.42253848000310223</v>
       </c>
       <c r="C6" s="0">
-        <v>0.0036331232854732477</v>
+        <v>0.048070762113257913</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>3.7881515847864924e-05</v>
+        <v>0.00040210197650866395</v>
       </c>
       <c r="F6" s="0">
-        <v>0.0019005511273243255</v>
+        <v>-0.00305654450635743</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.00024764146168186748</v>
+        <v>-0.015073571279610237</v>
       </c>
       <c r="I6" s="0">
-        <v>0.013036003835713102</v>
+        <v>-0.075824846844524618</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>6.6634689340983044e-05</v>
+        <v>0.00027389486263207363</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.26844402563866648</v>
+        <v>0.41918747228229347</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.058364468550188307</v>
+        <v>0.070465017929093252</v>
       </c>
       <c r="E7" s="0">
-        <v>0.014316950674760827</v>
+        <v>-0.023582992908561695</v>
       </c>
       <c r="F7" s="0">
-        <v>0.00062303529993308117</v>
+        <v>-0.032044339576993819</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.0014457838048886648</v>
+        <v>0.0080348629117049566</v>
       </c>
       <c r="H7" s="0">
-        <v>-0.00069093936012085372</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00092489385001354348</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.0042345288700967876</v>
+        <v>-0.02622355607605148</v>
       </c>
     </row>
     <row r="8">
